--- a/MonoMax.Studio/Reports/Report_template_letter.xlsx
+++ b/MonoMax.Studio/Reports/Report_template_letter.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\MonoMax.Studio\MonoMax.Studio\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\source\MonoMax.Studio\MonoMax.Studio\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A76D7E-B43A-4556-9CB8-27E3C4537892}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6D5BF7-7AA5-44F9-A033-3F5ED8060AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16ECEE91-023B-4016-89EA-456D12C7B42B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16ECEE91-023B-4016-89EA-456D12C7B42B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="List of items" sheetId="1" r:id="rId1"/>
+    <sheet name="Items summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ItemHeader">Report!$B$6</definedName>
-    <definedName name="ItemIcon">Report!$A$6</definedName>
-    <definedName name="ItemId">Report!$D$6</definedName>
-    <definedName name="ItemPrice">Report!$E$6</definedName>
-    <definedName name="ItemRow_template">Report!$A$6:$E$6</definedName>
-    <definedName name="ItemVendor">Report!$C$6</definedName>
+    <definedName name="ItemHeader">'List of items'!$C$7</definedName>
+    <definedName name="ItemIcon">'List of items'!$A$7</definedName>
+    <definedName name="ItemId">'List of items'!$E$7</definedName>
+    <definedName name="ItemRow_template">'List of items'!$A$7:$E$7</definedName>
+    <definedName name="ItemVendor">'List of items'!$D$7</definedName>
+    <definedName name="SumItemHeader">'Items summary'!$C$3</definedName>
+    <definedName name="SumItemIcon">'Items summary'!$A$3</definedName>
+    <definedName name="SumItemId">'Items summary'!$E$3</definedName>
+    <definedName name="SumItemPrice">'Items summary'!$F$3</definedName>
+    <definedName name="SumItemQuantity">'Items summary'!$B$3</definedName>
+    <definedName name="SumItemRow_template">'Items summary'!$A$3:$F$3</definedName>
+    <definedName name="SumItemVendor">'Items summary'!$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +38,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,21 +48,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
-    <t>Id</t>
+    <t>ITEMS REPORT</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>ITEM</t>
   </si>
   <si>
-    <t>Item</t>
+    <t>VENDOR</t>
   </si>
   <si>
-    <t>Vendor</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>ITEMS REPORT</t>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>IMG</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>LIST OF ITEMS</t>
+  </si>
+  <si>
+    <t>QUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -63,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +119,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,8 +140,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -133,11 +170,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -145,35 +241,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -202,8 +322,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1562602</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1177753</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -550,84 +670,165 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="4:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E2CC17-DAF7-4D7A-BDCE-34EB5A7D37E6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="2"/>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/MonoMax.Studio/Reports/Report_template_letter.xlsx
+++ b/MonoMax.Studio/Reports/Report_template_letter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\source\MonoMax.Studio\MonoMax.Studio\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6D5BF7-7AA5-44F9-A033-3F5ED8060AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8338F7E8-7EC2-4240-9450-9A11F0C3C60F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16ECEE91-023B-4016-89EA-456D12C7B42B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16ECEE91-023B-4016-89EA-456D12C7B42B}"/>
   </bookViews>
   <sheets>
     <sheet name="List of items" sheetId="1" r:id="rId1"/>
@@ -244,9 +244,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -272,7 +269,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -294,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,8 +672,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -685,66 +685,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -785,42 +785,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/MonoMax.Studio/Reports/Report_template_letter.xlsx
+++ b/MonoMax.Studio/Reports/Report_template_letter.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\source\MonoMax.Studio\MonoMax.Studio\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\MonoMax.Studio\MonoMax.Studio\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8338F7E8-7EC2-4240-9450-9A11F0C3C60F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065E7423-2249-4BCF-9AA4-990424F880AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16ECEE91-023B-4016-89EA-456D12C7B42B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16ECEE91-023B-4016-89EA-456D12C7B42B}"/>
   </bookViews>
   <sheets>
     <sheet name="List of items" sheetId="1" r:id="rId1"/>
     <sheet name="Items summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ItemHeader">'List of items'!$C$7</definedName>
+    <definedName name="ItemHeader">'List of items'!$B$7</definedName>
     <definedName name="ItemIcon">'List of items'!$A$7</definedName>
-    <definedName name="ItemId">'List of items'!$E$7</definedName>
-    <definedName name="ItemRow_template">'List of items'!$A$7:$E$7</definedName>
-    <definedName name="ItemVendor">'List of items'!$D$7</definedName>
+    <definedName name="ItemNote">'List of items'!$C$7</definedName>
+    <definedName name="ItemRow_template">'List of items'!$A$7:$C$7</definedName>
     <definedName name="SumItemHeader">'Items summary'!$C$3</definedName>
     <definedName name="SumItemIcon">'Items summary'!$A$3</definedName>
     <definedName name="SumItemId">'Items summary'!$E$3</definedName>
@@ -38,9 +37,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>ITEMS REPORT</t>
   </si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>NOTES</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -271,6 +271,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -280,20 +286,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -322,8 +319,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1177753</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1562602</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -670,98 +667,81 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:K9"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.5703125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+    <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+    <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="4:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
+    <row r="8" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:B6"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -833,21 +813,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007DF56C57E473174885CFAFD550A24590" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abb534030024496c3dcaea6171069358">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2dcd48ed-6514-4893-b288-e1dea68ae3d4" xmlns:ns4="03aa2176-2849-4cfb-a690-7e0cc4ba0166" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f19c7c114431a9911dfe7c67cd1c0ebd" ns3:_="" ns4:_="">
     <xsd:import namespace="2dcd48ed-6514-4893-b288-e1dea68ae3d4"/>
@@ -1056,15 +1027,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E3E2BBC-399F-4854-AF39-B8A0D2708A38}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15CC2D14-74EE-4E9E-89FD-81F08E9D26F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1081,7 +1053,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B527A174-C5C9-4016-9B9E-EA12DF8647DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1098,4 +1070,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E3E2BBC-399F-4854-AF39-B8A0D2708A38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/MonoMax.Studio/Reports/Report_template_letter.xlsx
+++ b/MonoMax.Studio/Reports/Report_template_letter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\MonoMax.Studio\MonoMax.Studio\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\source\MonoMax.Studio\MonoMax.Studio\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065E7423-2249-4BCF-9AA4-990424F880AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABC490D-5205-4DA9-813F-7EBCBBBA6845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16ECEE91-023B-4016-89EA-456D12C7B42B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16ECEE91-023B-4016-89EA-456D12C7B42B}"/>
   </bookViews>
   <sheets>
     <sheet name="List of items" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -185,36 +185,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </bottom>
@@ -233,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -241,56 +215,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,7 +635,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -682,50 +647,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -754,7 +719,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,42 +730,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -813,12 +778,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007DF56C57E473174885CFAFD550A24590" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abb534030024496c3dcaea6171069358">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2dcd48ed-6514-4893-b288-e1dea68ae3d4" xmlns:ns4="03aa2176-2849-4cfb-a690-7e0cc4ba0166" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f19c7c114431a9911dfe7c67cd1c0ebd" ns3:_="" ns4:_="">
     <xsd:import namespace="2dcd48ed-6514-4893-b288-e1dea68ae3d4"/>
@@ -1027,7 +986,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1036,24 +995,13 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15CC2D14-74EE-4E9E-89FD-81F08E9D26F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2dcd48ed-6514-4893-b288-e1dea68ae3d4"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="03aa2176-2849-4cfb-a690-7e0cc4ba0166"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B527A174-C5C9-4016-9B9E-EA12DF8647DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1072,10 +1020,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E3E2BBC-399F-4854-AF39-B8A0D2708A38}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15CC2D14-74EE-4E9E-89FD-81F08E9D26F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2dcd48ed-6514-4893-b288-e1dea68ae3d4"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="03aa2176-2849-4cfb-a690-7e0cc4ba0166"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/MonoMax.Studio/Reports/Report_template_letter.xlsx
+++ b/MonoMax.Studio/Reports/Report_template_letter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\source\MonoMax.Studio\MonoMax.Studio\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABC490D-5205-4DA9-813F-7EBCBBBA6845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F1D8B-EC90-420E-A1BC-C6D0EE7A0752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16ECEE91-023B-4016-89EA-456D12C7B42B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16ECEE91-023B-4016-89EA-456D12C7B42B}"/>
   </bookViews>
   <sheets>
     <sheet name="List of items" sheetId="1" r:id="rId1"/>
@@ -96,35 +96,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <b/>
+      <sz val="40"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="40"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -147,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -203,59 +203,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,8 +649,8 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -647,36 +662,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -685,13 +700,13 @@
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="3:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -718,28 +733,30 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="6" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="50.7109375" style="9" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -755,17 +772,17 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
